--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1155061.824719166</v>
+        <v>1151441.149276421</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33189747.64906782</v>
+        <v>32863755.74973757</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5956807.595700205</v>
+        <v>5658037.598036024</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4150809.851908858</v>
+        <v>4264439.695954376</v>
       </c>
     </row>
     <row r="11">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>123.9099174567689</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1423,16 +1423,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>8.086301293330829</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>63.62546569681959</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>62.49116477960652</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -1666,13 +1666,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>174.5159749219474</v>
+        <v>361.4649050157285</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>23.85462767572855</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>147.1106688603668</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>166.915181567964</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2004,16 +2004,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>63.62546569681959</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
@@ -2022,7 +2022,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>7.722803593220153</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>383.7523561961048</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -2143,13 +2143,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>213.5382021707748</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.2554861788117</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>63.62546569681959</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>167.7571158617398</v>
       </c>
       <c r="D23" t="n">
-        <v>362.5800970688172</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.2323508638083</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>132.6127701905736</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2794,13 +2794,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>390.2899469759188</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>182.3564778095808</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2809,7 +2809,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2857,10 +2857,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3040,7 +3040,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>106.5196440534501</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>6.297251897782405</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>223.5847701307329</v>
       </c>
       <c r="F35" t="n">
-        <v>350.0181736705484</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3429,19 +3429,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>54.31661462074995</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>161.9953021750144</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,10 +3511,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>164.6551731938299</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>149.6157531058527</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>60.07073011995545</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>124.9554984777218</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3742,10 +3742,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>373.723262178685</v>
       </c>
       <c r="D41" t="n">
-        <v>274.0803980542733</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777218</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.50583343253361</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>166.7688627778421</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>60.07073011995545</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4197,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>122.959202683614</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.8380161568152</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>88.7359473806426</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549116</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>27.13222579419039</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7.922179662952697</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.98581709030266</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176022</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654181</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682886</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>102.2866202642709</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529546</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>142.9948879228476</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.0716593183938</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>164.4449616415467</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>149.3429022612615</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.097182601319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441171</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>12.29595456866669</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.39667048773347</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>63.54032986823828</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>81.21226608501969</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>122.1141191020718</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341947</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864403</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.929668948206</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>123.5276858794757</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>45.03752655443588</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>45.03752655443588</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.954119607211492</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>15.74754252345352</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>24.44078496259454</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>33.60659023213768</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>42.55445313895319</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>83.45630615600527</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.5247019534642</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>104.7923756428305</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>104.7923756428305</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>104.7923756428305</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>104.7923756428305</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>104.7923756428305</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>104.7923756428305</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1703.234501542679</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="C11" t="n">
-        <v>1703.234501542679</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
         <v>805.4408022867025</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5071,22 +5071,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2108.089956131646</v>
+        <v>2311.693226558159</v>
       </c>
       <c r="U11" t="n">
-        <v>2108.089956131646</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="V11" t="n">
-        <v>2108.089956131646</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="W11" t="n">
-        <v>1703.234501542679</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="X11" t="n">
-        <v>1703.234501542679</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="Y11" t="n">
-        <v>1703.234501542679</v>
+        <v>2052.622535079674</v>
       </c>
     </row>
     <row r="12">
@@ -5111,19 +5111,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
@@ -5135,7 +5135,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>795.2066002154656</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C13" t="n">
-        <v>622.6448886986906</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D13" t="n">
-        <v>456.7668959002132</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E13" t="n">
-        <v>287.0088921509505</v>
+        <v>471.655226289377</v>
       </c>
       <c r="F13" t="n">
-        <v>110.3018381127067</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>910.9641928553089</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2297.205188781467</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.81855683021</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1731.863048700641</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W13" t="n">
-        <v>1459.836644286932</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1214.444889620345</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y13" t="n">
-        <v>987.0252189344528</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1308.351417301975</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C14" t="n">
-        <v>1308.351417301975</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.351417301975</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E14" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>1889.485634438363</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W14" t="n">
-        <v>1484.630179849396</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X14" t="n">
-        <v>1308.351417301975</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.351417301975</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1053.292138170716</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C16" t="n">
-        <v>880.7304266539412</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D16" t="n">
-        <v>714.8524338554639</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>545.0944301062011</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3873760679573</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G16" t="n">
-        <v>203.6461956804758</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H16" t="n">
-        <v>71.30213505979165</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5445,16 +5445,16 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5472,16 +5472,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.711808856608</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y16" t="n">
-        <v>1053.292138170716</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1065.487716428707</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C17" t="n">
-        <v>916.8910812162151</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D17" t="n">
-        <v>480.9812963906596</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5533,7 +5533,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>1889.485634438363</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W17" t="n">
-        <v>1484.630179849396</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X17" t="n">
-        <v>1065.487716428707</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y17" t="n">
-        <v>1065.487716428707</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1029.196554659879</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C19" t="n">
-        <v>856.6348431431041</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D19" t="n">
-        <v>690.7568503446269</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E19" t="n">
-        <v>520.9988465953642</v>
+        <v>471.655226289377</v>
       </c>
       <c r="F19" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>116.6355901513728</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>488.1941452900666</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1030.274828676326</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M19" t="n">
-        <v>1160.879221014855</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N19" t="n">
-        <v>1288.378132818745</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O19" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1965.853003145054</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W19" t="n">
-        <v>1693.826598731346</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1448.434844064758</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y19" t="n">
-        <v>1221.015173378866</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>870.7449789968383</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C20" t="n">
-        <v>870.7449789968383</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D20" t="n">
-        <v>434.8351941712828</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>434.8351941712828</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>434.8351941712828</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5782,22 +5782,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1698.173566117874</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W20" t="n">
-        <v>1698.173566117874</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X20" t="n">
-        <v>1279.031102697185</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="Y20" t="n">
-        <v>870.7449789968383</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.0748969752678</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C22" t="n">
-        <v>699.0748969752678</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D22" t="n">
-        <v>558.4127897239429</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6547859746801</v>
+        <v>471.655226289377</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.331138940781</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376305</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,7 +5937,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
@@ -5946,16 +5946,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774551</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
         <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>890.893515694255</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y22" t="n">
-        <v>890.893515694255</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2129.259312826593</v>
+        <v>1937.973091829978</v>
       </c>
       <c r="C23" t="n">
-        <v>1691.116840010016</v>
+        <v>1768.521459646403</v>
       </c>
       <c r="D23" t="n">
-        <v>1324.874317718281</v>
+        <v>1332.611674820847</v>
       </c>
       <c r="E23" t="n">
-        <v>891.0995728765766</v>
+        <v>898.8369299791423</v>
       </c>
       <c r="F23" t="n">
-        <v>463.2321432857844</v>
+        <v>470.96950038835</v>
       </c>
       <c r="G23" t="n">
-        <v>63.72945196526155</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="H23" t="n">
-        <v>63.72945196526155</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I23" t="n">
-        <v>134.9294022164422</v>
+        <v>142.6667593190078</v>
       </c>
       <c r="J23" t="n">
-        <v>727.8308649128054</v>
+        <v>735.5682220153709</v>
       </c>
       <c r="K23" t="n">
-        <v>964.1025152920263</v>
+        <v>971.8398723945919</v>
       </c>
       <c r="L23" t="n">
-        <v>1257.218390155927</v>
+        <v>1264.955747258493</v>
       </c>
       <c r="M23" t="n">
-        <v>1583.366278324714</v>
+        <v>1591.10363542728</v>
       </c>
       <c r="N23" t="n">
-        <v>1914.791580301192</v>
+        <v>1922.528937403757</v>
       </c>
       <c r="O23" t="n">
-        <v>2227.747094842484</v>
+        <v>2235.48445194505</v>
       </c>
       <c r="P23" t="n">
-        <v>2494.847386021753</v>
+        <v>3086.928609343092</v>
       </c>
       <c r="Q23" t="n">
-        <v>3069.796013978937</v>
+        <v>3287.50980435416</v>
       </c>
       <c r="R23" t="n">
-        <v>3186.472598263077</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="S23" t="n">
-        <v>3186.472598263077</v>
+        <v>3532.874083606154</v>
       </c>
       <c r="T23" t="n">
-        <v>2974.701346732189</v>
+        <v>3532.874083606154</v>
       </c>
       <c r="U23" t="n">
-        <v>2974.701346732189</v>
+        <v>3532.874083606154</v>
       </c>
       <c r="V23" t="n">
-        <v>2974.701346732189</v>
+        <v>3170.257133539981</v>
       </c>
       <c r="W23" t="n">
-        <v>2974.701346732189</v>
+        <v>2765.401678951014</v>
       </c>
       <c r="X23" t="n">
-        <v>2555.5588833115</v>
+        <v>2346.259215530325</v>
       </c>
       <c r="Y23" t="n">
-        <v>2555.5588833115</v>
+        <v>1937.973091829978</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>559.0942054826976</v>
+        <v>566.8315625852632</v>
       </c>
       <c r="C24" t="n">
-        <v>452.6377443193398</v>
+        <v>460.3751014219055</v>
       </c>
       <c r="D24" t="n">
-        <v>357.5474554658931</v>
+        <v>365.2848125684587</v>
       </c>
       <c r="E24" t="n">
-        <v>263.4270407928468</v>
+        <v>271.1643978954124</v>
       </c>
       <c r="F24" t="n">
-        <v>180.0432024090084</v>
+        <v>187.780559511574</v>
       </c>
       <c r="G24" t="n">
-        <v>95.6721019986653</v>
+        <v>103.4094591012309</v>
       </c>
       <c r="H24" t="n">
-        <v>63.72945196526155</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I24" t="n">
-        <v>97.94618813673767</v>
+        <v>105.6835452393033</v>
       </c>
       <c r="J24" t="n">
-        <v>191.8395274832048</v>
+        <v>199.5768845857704</v>
       </c>
       <c r="K24" t="n">
-        <v>352.3181995373751</v>
+        <v>360.0555566399406</v>
       </c>
       <c r="L24" t="n">
-        <v>568.1015784123973</v>
+        <v>575.8389355149631</v>
       </c>
       <c r="M24" t="n">
-        <v>819.9106037150948</v>
+        <v>827.6479608176604</v>
       </c>
       <c r="N24" t="n">
-        <v>1078.384264636415</v>
+        <v>1086.12162173898</v>
       </c>
       <c r="O24" t="n">
-        <v>1314.837167450945</v>
+        <v>1322.574524553511</v>
       </c>
       <c r="P24" t="n">
-        <v>1504.611468015751</v>
+        <v>1512.348825118317</v>
       </c>
       <c r="Q24" t="n">
-        <v>1631.470562223986</v>
+        <v>1639.207919326551</v>
       </c>
       <c r="R24" t="n">
-        <v>1693.174016649899</v>
+        <v>1700.911373752464</v>
       </c>
       <c r="S24" t="n">
-        <v>1648.552986049633</v>
+        <v>1656.290343152198</v>
       </c>
       <c r="T24" t="n">
-        <v>1522.461430925286</v>
+        <v>1530.198788027851</v>
       </c>
       <c r="U24" t="n">
-        <v>1346.191593749167</v>
+        <v>1353.928950851732</v>
       </c>
       <c r="V24" t="n">
-        <v>1147.074075811166</v>
+        <v>1154.811432913732</v>
       </c>
       <c r="W24" t="n">
-        <v>961.7513215443601</v>
+        <v>969.4886786469256</v>
       </c>
       <c r="X24" t="n">
-        <v>806.88388578324</v>
+        <v>814.6212428858056</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.3981065624607</v>
+        <v>688.1354636650264</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1108.814741639938</v>
+        <v>1116.552098742504</v>
       </c>
       <c r="C25" t="n">
-        <v>936.2530301231631</v>
+        <v>943.9903872257286</v>
       </c>
       <c r="D25" t="n">
-        <v>770.3750373246858</v>
+        <v>778.1123944272513</v>
       </c>
       <c r="E25" t="n">
-        <v>600.617033575423</v>
+        <v>608.3543906779886</v>
       </c>
       <c r="F25" t="n">
-        <v>423.9099795371792</v>
+        <v>431.6473366397448</v>
       </c>
       <c r="G25" t="n">
-        <v>259.1687991496976</v>
+        <v>266.9061562522632</v>
       </c>
       <c r="H25" t="n">
-        <v>126.8247385290135</v>
+        <v>134.5620956315791</v>
       </c>
       <c r="I25" t="n">
-        <v>63.72945196526155</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="J25" t="n">
-        <v>209.2148008321345</v>
+        <v>216.9521579347001</v>
       </c>
       <c r="K25" t="n">
-        <v>580.7733559708283</v>
+        <v>410.6624665106465</v>
       </c>
       <c r="L25" t="n">
-        <v>765.69167368833</v>
+        <v>952.7431498969054</v>
       </c>
       <c r="M25" t="n">
-        <v>1355.779933207773</v>
+        <v>1542.831409416348</v>
       </c>
       <c r="N25" t="n">
-        <v>1925.537648169307</v>
+        <v>2112.589124377882</v>
       </c>
       <c r="O25" t="n">
-        <v>2462.97277874285</v>
+        <v>2650.024254951425</v>
       </c>
       <c r="P25" t="n">
-        <v>2911.248728890875</v>
+        <v>2750.793311129109</v>
       </c>
       <c r="Q25" t="n">
-        <v>2981.016000121531</v>
+        <v>2988.753357224096</v>
       </c>
       <c r="R25" t="n">
-        <v>2997.487092798298</v>
+        <v>3005.224449900864</v>
       </c>
       <c r="S25" t="n">
-        <v>2853.060554302533</v>
+        <v>2860.797911405099</v>
       </c>
       <c r="T25" t="n">
-        <v>2610.81333020594</v>
+        <v>2618.550687308505</v>
       </c>
       <c r="U25" t="n">
-        <v>2332.426698254682</v>
+        <v>2340.164055357248</v>
       </c>
       <c r="V25" t="n">
-        <v>2045.471190125113</v>
+        <v>2053.208547227679</v>
       </c>
       <c r="W25" t="n">
-        <v>1773.444785711405</v>
+        <v>1781.18214281397</v>
       </c>
       <c r="X25" t="n">
-        <v>1528.053031044817</v>
+        <v>1535.790388147383</v>
       </c>
       <c r="Y25" t="n">
-        <v>1300.633360358925</v>
+        <v>1308.370717461491</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1337.284400927917</v>
+        <v>1040.831578335697</v>
       </c>
       <c r="C26" t="n">
-        <v>899.1419281113399</v>
+        <v>1040.831578335697</v>
       </c>
       <c r="D26" t="n">
-        <v>463.2321432857844</v>
+        <v>604.9217935101415</v>
       </c>
       <c r="E26" t="n">
-        <v>463.2321432857844</v>
+        <v>470.96950038835</v>
       </c>
       <c r="F26" t="n">
-        <v>463.2321432857844</v>
+        <v>470.96950038835</v>
       </c>
       <c r="G26" t="n">
-        <v>63.72945196526155</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72945196526155</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I26" t="n">
-        <v>134.9294022164422</v>
+        <v>142.6667593190078</v>
       </c>
       <c r="J26" t="n">
-        <v>292.5761774598875</v>
+        <v>735.5682220153709</v>
       </c>
       <c r="K26" t="n">
-        <v>528.8478278391084</v>
+        <v>971.8398723945919</v>
       </c>
       <c r="L26" t="n">
-        <v>821.9637027030091</v>
+        <v>1264.955747258493</v>
       </c>
       <c r="M26" t="n">
-        <v>1610.61567077312</v>
+        <v>1591.10363542728</v>
       </c>
       <c r="N26" t="n">
-        <v>2289.159013247307</v>
+        <v>1922.528937403757</v>
       </c>
       <c r="O26" t="n">
-        <v>2602.1145277886</v>
+        <v>2235.48445194505</v>
       </c>
       <c r="P26" t="n">
-        <v>2869.214818967869</v>
+        <v>2540.429823384497</v>
       </c>
       <c r="Q26" t="n">
-        <v>3069.796013978937</v>
+        <v>3287.50980435416</v>
       </c>
       <c r="R26" t="n">
-        <v>3186.472598263077</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="S26" t="n">
-        <v>3146.006228477874</v>
+        <v>3532.874083606154</v>
       </c>
       <c r="T26" t="n">
-        <v>2934.234976946987</v>
+        <v>3321.102832075267</v>
       </c>
       <c r="U26" t="n">
-        <v>2934.234976946987</v>
+        <v>3062.032140596781</v>
       </c>
       <c r="V26" t="n">
-        <v>2571.618026880813</v>
+        <v>2699.415190530607</v>
       </c>
       <c r="W26" t="n">
-        <v>2166.762572291846</v>
+        <v>2294.559735941641</v>
       </c>
       <c r="X26" t="n">
-        <v>1747.620108871157</v>
+        <v>1875.417272520951</v>
       </c>
       <c r="Y26" t="n">
-        <v>1747.620108871157</v>
+        <v>1467.131148820605</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>559.0942054826976</v>
+        <v>566.8315625852632</v>
       </c>
       <c r="C27" t="n">
-        <v>452.6377443193398</v>
+        <v>460.3751014219055</v>
       </c>
       <c r="D27" t="n">
-        <v>357.5474554658931</v>
+        <v>365.2848125684587</v>
       </c>
       <c r="E27" t="n">
-        <v>263.4270407928468</v>
+        <v>271.1643978954124</v>
       </c>
       <c r="F27" t="n">
-        <v>180.0432024090084</v>
+        <v>187.780559511574</v>
       </c>
       <c r="G27" t="n">
-        <v>95.6721019986653</v>
+        <v>103.4094591012309</v>
       </c>
       <c r="H27" t="n">
-        <v>63.72945196526155</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I27" t="n">
-        <v>97.94618813673767</v>
+        <v>105.6835452393033</v>
       </c>
       <c r="J27" t="n">
-        <v>191.8395274832048</v>
+        <v>199.5768845857704</v>
       </c>
       <c r="K27" t="n">
-        <v>352.3181995373751</v>
+        <v>360.0555566399406</v>
       </c>
       <c r="L27" t="n">
-        <v>568.1015784123973</v>
+        <v>575.8389355149631</v>
       </c>
       <c r="M27" t="n">
-        <v>819.9106037150948</v>
+        <v>827.6479608176604</v>
       </c>
       <c r="N27" t="n">
-        <v>1078.384264636415</v>
+        <v>1086.12162173898</v>
       </c>
       <c r="O27" t="n">
-        <v>1314.837167450945</v>
+        <v>1322.574524553511</v>
       </c>
       <c r="P27" t="n">
-        <v>1504.611468015751</v>
+        <v>1512.348825118317</v>
       </c>
       <c r="Q27" t="n">
-        <v>1631.470562223986</v>
+        <v>1639.207919326551</v>
       </c>
       <c r="R27" t="n">
-        <v>1693.174016649899</v>
+        <v>1700.911373752464</v>
       </c>
       <c r="S27" t="n">
-        <v>1648.552986049633</v>
+        <v>1656.290343152198</v>
       </c>
       <c r="T27" t="n">
-        <v>1522.461430925286</v>
+        <v>1530.198788027851</v>
       </c>
       <c r="U27" t="n">
-        <v>1346.191593749167</v>
+        <v>1353.928950851732</v>
       </c>
       <c r="V27" t="n">
-        <v>1147.074075811166</v>
+        <v>1154.811432913732</v>
       </c>
       <c r="W27" t="n">
-        <v>961.7513215443601</v>
+        <v>969.4886786469256</v>
       </c>
       <c r="X27" t="n">
-        <v>806.88388578324</v>
+        <v>814.6212428858056</v>
       </c>
       <c r="Y27" t="n">
-        <v>680.3981065624607</v>
+        <v>688.1354636650264</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1108.814741639938</v>
+        <v>1116.552098742504</v>
       </c>
       <c r="C28" t="n">
-        <v>936.2530301231631</v>
+        <v>943.9903872257286</v>
       </c>
       <c r="D28" t="n">
-        <v>770.3750373246858</v>
+        <v>778.1123944272513</v>
       </c>
       <c r="E28" t="n">
-        <v>600.617033575423</v>
+        <v>608.3543906779886</v>
       </c>
       <c r="F28" t="n">
-        <v>423.9099795371792</v>
+        <v>431.6473366397448</v>
       </c>
       <c r="G28" t="n">
-        <v>259.1687991496976</v>
+        <v>266.9061562522632</v>
       </c>
       <c r="H28" t="n">
-        <v>126.8247385290135</v>
+        <v>134.5620956315791</v>
       </c>
       <c r="I28" t="n">
-        <v>63.72945196526155</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="J28" t="n">
-        <v>209.2148008321345</v>
+        <v>216.9521579347001</v>
       </c>
       <c r="K28" t="n">
-        <v>580.7733559708283</v>
+        <v>410.6624665106465</v>
       </c>
       <c r="L28" t="n">
-        <v>1122.854039357087</v>
+        <v>952.7431498969054</v>
       </c>
       <c r="M28" t="n">
-        <v>1712.94229887653</v>
+        <v>1542.831409416348</v>
       </c>
       <c r="N28" t="n">
-        <v>1925.537648169307</v>
+        <v>2112.589124377882</v>
       </c>
       <c r="O28" t="n">
-        <v>2462.97277874285</v>
+        <v>2650.024254951425</v>
       </c>
       <c r="P28" t="n">
-        <v>2911.248728890875</v>
+        <v>2750.793311129109</v>
       </c>
       <c r="Q28" t="n">
-        <v>2981.016000121531</v>
+        <v>2988.753357224096</v>
       </c>
       <c r="R28" t="n">
-        <v>2997.487092798298</v>
+        <v>3005.224449900864</v>
       </c>
       <c r="S28" t="n">
-        <v>2853.060554302533</v>
+        <v>2860.797911405099</v>
       </c>
       <c r="T28" t="n">
-        <v>2610.81333020594</v>
+        <v>2618.550687308505</v>
       </c>
       <c r="U28" t="n">
-        <v>2332.426698254682</v>
+        <v>2340.164055357248</v>
       </c>
       <c r="V28" t="n">
-        <v>2045.471190125113</v>
+        <v>2053.208547227679</v>
       </c>
       <c r="W28" t="n">
-        <v>1773.444785711405</v>
+        <v>1781.18214281397</v>
       </c>
       <c r="X28" t="n">
-        <v>1528.053031044817</v>
+        <v>1535.790388147383</v>
       </c>
       <c r="Y28" t="n">
-        <v>1300.633360358925</v>
+        <v>1308.370717461491</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1780.929371592142</v>
+        <v>1293.069199651788</v>
       </c>
       <c r="C29" t="n">
-        <v>1780.929371592142</v>
+        <v>898.8369299791423</v>
       </c>
       <c r="D29" t="n">
-        <v>1345.019586766586</v>
+        <v>898.8369299791423</v>
       </c>
       <c r="E29" t="n">
-        <v>1160.821124332666</v>
+        <v>898.8369299791423</v>
       </c>
       <c r="F29" t="n">
-        <v>732.953694741874</v>
+        <v>470.96950038835</v>
       </c>
       <c r="G29" t="n">
-        <v>333.4510034213511</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72945196526155</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I29" t="n">
-        <v>134.9294022164422</v>
+        <v>142.6667593190078</v>
       </c>
       <c r="J29" t="n">
-        <v>292.5761774598875</v>
+        <v>735.5682220153709</v>
       </c>
       <c r="K29" t="n">
-        <v>1081.228145529999</v>
+        <v>1009.684952654771</v>
       </c>
       <c r="L29" t="n">
-        <v>1374.3440203939</v>
+        <v>1302.800827518671</v>
       </c>
       <c r="M29" t="n">
-        <v>1700.491908562687</v>
+        <v>1628.948715687458</v>
       </c>
       <c r="N29" t="n">
-        <v>2031.917210539164</v>
+        <v>1960.374017663936</v>
       </c>
       <c r="O29" t="n">
-        <v>2602.1145277886</v>
+        <v>2273.329532205229</v>
       </c>
       <c r="P29" t="n">
-        <v>2869.214818967869</v>
+        <v>2540.429823384497</v>
       </c>
       <c r="Q29" t="n">
-        <v>3069.796013978937</v>
+        <v>3287.50980435416</v>
       </c>
       <c r="R29" t="n">
-        <v>3186.472598263077</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="S29" t="n">
-        <v>3186.472598263077</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="T29" t="n">
-        <v>2974.701346732189</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="U29" t="n">
-        <v>2974.701346732189</v>
+        <v>3314.269761912871</v>
       </c>
       <c r="V29" t="n">
-        <v>2612.084396666016</v>
+        <v>2951.652811846698</v>
       </c>
       <c r="W29" t="n">
-        <v>2207.228942077049</v>
+        <v>2546.797357257731</v>
       </c>
       <c r="X29" t="n">
-        <v>2207.228942077049</v>
+        <v>2127.654893837042</v>
       </c>
       <c r="Y29" t="n">
-        <v>2207.228942077049</v>
+        <v>1719.368770136695</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2052.392787095876</v>
+        <v>566.8315625852632</v>
       </c>
       <c r="C30" t="n">
-        <v>1945.936325932519</v>
+        <v>460.3751014219055</v>
       </c>
       <c r="D30" t="n">
-        <v>1850.846037079072</v>
+        <v>365.2848125684587</v>
       </c>
       <c r="E30" t="n">
-        <v>1756.725622406026</v>
+        <v>271.1643978954124</v>
       </c>
       <c r="F30" t="n">
-        <v>1673.341784022187</v>
+        <v>187.780559511574</v>
       </c>
       <c r="G30" t="n">
-        <v>1588.970683611844</v>
+        <v>103.4094591012309</v>
       </c>
       <c r="H30" t="n">
-        <v>1557.02803357844</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I30" t="n">
-        <v>1591.244769749916</v>
+        <v>105.6835452393033</v>
       </c>
       <c r="J30" t="n">
-        <v>1685.138109096384</v>
+        <v>199.5768845857704</v>
       </c>
       <c r="K30" t="n">
-        <v>1845.616781150554</v>
+        <v>360.0555566399406</v>
       </c>
       <c r="L30" t="n">
-        <v>2061.400160025576</v>
+        <v>575.8389355149631</v>
       </c>
       <c r="M30" t="n">
-        <v>2313.209185328274</v>
+        <v>827.6479608176604</v>
       </c>
       <c r="N30" t="n">
-        <v>2571.682846249594</v>
+        <v>1086.12162173898</v>
       </c>
       <c r="O30" t="n">
-        <v>2808.135749064124</v>
+        <v>1322.574524553511</v>
       </c>
       <c r="P30" t="n">
-        <v>2997.91004962893</v>
+        <v>1512.348825118317</v>
       </c>
       <c r="Q30" t="n">
-        <v>3124.769143837164</v>
+        <v>1639.207919326551</v>
       </c>
       <c r="R30" t="n">
-        <v>3186.472598263077</v>
+        <v>1700.911373752464</v>
       </c>
       <c r="S30" t="n">
-        <v>3141.851567662811</v>
+        <v>1656.290343152198</v>
       </c>
       <c r="T30" t="n">
-        <v>3015.760012538464</v>
+        <v>1530.198788027851</v>
       </c>
       <c r="U30" t="n">
-        <v>2839.490175362345</v>
+        <v>1353.928950851732</v>
       </c>
       <c r="V30" t="n">
-        <v>2640.372657424345</v>
+        <v>1154.811432913732</v>
       </c>
       <c r="W30" t="n">
-        <v>2455.049903157539</v>
+        <v>969.4886786469256</v>
       </c>
       <c r="X30" t="n">
-        <v>2300.182467396419</v>
+        <v>814.6212428858056</v>
       </c>
       <c r="Y30" t="n">
-        <v>2173.69668817564</v>
+        <v>688.1354636650264</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1108.814741639938</v>
+        <v>1116.552098742504</v>
       </c>
       <c r="C31" t="n">
-        <v>936.2530301231631</v>
+        <v>943.9903872257286</v>
       </c>
       <c r="D31" t="n">
-        <v>770.3750373246858</v>
+        <v>778.1123944272513</v>
       </c>
       <c r="E31" t="n">
-        <v>600.617033575423</v>
+        <v>608.3543906779886</v>
       </c>
       <c r="F31" t="n">
-        <v>423.9099795371792</v>
+        <v>431.6473366397448</v>
       </c>
       <c r="G31" t="n">
-        <v>259.1687991496976</v>
+        <v>266.9061562522632</v>
       </c>
       <c r="H31" t="n">
-        <v>126.8247385290135</v>
+        <v>134.5620956315791</v>
       </c>
       <c r="I31" t="n">
-        <v>63.72945196526155</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="J31" t="n">
-        <v>209.2148008321345</v>
+        <v>216.9521579347001</v>
       </c>
       <c r="K31" t="n">
-        <v>580.7733559708283</v>
+        <v>588.5107130733938</v>
       </c>
       <c r="L31" t="n">
-        <v>765.69167368833</v>
+        <v>1130.591396459653</v>
       </c>
       <c r="M31" t="n">
-        <v>1355.779933207773</v>
+        <v>1261.195788798182</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.537648169307</v>
+        <v>1765.08223040754</v>
       </c>
       <c r="O31" t="n">
-        <v>2462.97277874285</v>
+        <v>2302.517360981084</v>
       </c>
       <c r="P31" t="n">
-        <v>2911.248728890875</v>
+        <v>2750.793311129109</v>
       </c>
       <c r="Q31" t="n">
-        <v>2981.016000121531</v>
+        <v>2988.753357224096</v>
       </c>
       <c r="R31" t="n">
-        <v>2997.487092798298</v>
+        <v>3005.224449900864</v>
       </c>
       <c r="S31" t="n">
-        <v>2853.060554302533</v>
+        <v>2860.797911405099</v>
       </c>
       <c r="T31" t="n">
-        <v>2610.81333020594</v>
+        <v>2618.550687308505</v>
       </c>
       <c r="U31" t="n">
-        <v>2332.426698254682</v>
+        <v>2340.164055357248</v>
       </c>
       <c r="V31" t="n">
-        <v>2045.471190125113</v>
+        <v>2053.208547227679</v>
       </c>
       <c r="W31" t="n">
-        <v>1773.444785711405</v>
+        <v>1781.18214281397</v>
       </c>
       <c r="X31" t="n">
-        <v>1528.053031044817</v>
+        <v>1535.790388147383</v>
       </c>
       <c r="Y31" t="n">
-        <v>1300.633360358925</v>
+        <v>1308.370717461491</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1368.251254205296</v>
+        <v>1807.161241142456</v>
       </c>
       <c r="C32" t="n">
-        <v>930.1087813887198</v>
+        <v>1369.01876832588</v>
       </c>
       <c r="D32" t="n">
-        <v>494.1989965631642</v>
+        <v>933.1089835003243</v>
       </c>
       <c r="E32" t="n">
-        <v>60.42425172145935</v>
+        <v>499.3342386586194</v>
       </c>
       <c r="F32" t="n">
-        <v>60.42425172145935</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="G32" t="n">
-        <v>60.42425172145935</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="H32" t="n">
-        <v>60.42425172145935</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I32" t="n">
-        <v>131.62420197264</v>
+        <v>142.6667593190078</v>
       </c>
       <c r="J32" t="n">
-        <v>289.2709772160853</v>
+        <v>735.5682220153709</v>
       </c>
       <c r="K32" t="n">
-        <v>525.5426275953063</v>
+        <v>1009.684952654771</v>
       </c>
       <c r="L32" t="n">
-        <v>818.6585024592069</v>
+        <v>1302.800827518671</v>
       </c>
       <c r="M32" t="n">
-        <v>1566.408617512266</v>
+        <v>1628.948715687458</v>
       </c>
       <c r="N32" t="n">
-        <v>1897.833919488744</v>
+        <v>1960.374017663936</v>
       </c>
       <c r="O32" t="n">
-        <v>2210.789434030036</v>
+        <v>2273.329532205229</v>
       </c>
       <c r="P32" t="n">
-        <v>2534.800742024703</v>
+        <v>2540.429823384497</v>
       </c>
       <c r="Q32" t="n">
-        <v>2735.38193703577</v>
+        <v>3287.50980435416</v>
       </c>
       <c r="R32" t="n">
-        <v>3021.212586072967</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="S32" t="n">
-        <v>3021.212586072967</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="T32" t="n">
-        <v>2809.44133454208</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="U32" t="n">
-        <v>2550.370643063594</v>
+        <v>3573.340453391357</v>
       </c>
       <c r="V32" t="n">
-        <v>2187.75369299742</v>
+        <v>3465.744853337367</v>
       </c>
       <c r="W32" t="n">
-        <v>1782.898238408454</v>
+        <v>3060.8893987484</v>
       </c>
       <c r="X32" t="n">
-        <v>1776.537377905643</v>
+        <v>2641.746935327711</v>
       </c>
       <c r="Y32" t="n">
-        <v>1368.251254205296</v>
+        <v>2233.460811627364</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>555.7890052388954</v>
+        <v>566.8315625852632</v>
       </c>
       <c r="C33" t="n">
-        <v>449.3325440755377</v>
+        <v>460.3751014219055</v>
       </c>
       <c r="D33" t="n">
-        <v>354.2422552220909</v>
+        <v>365.2848125684587</v>
       </c>
       <c r="E33" t="n">
-        <v>260.1218405490446</v>
+        <v>271.1643978954124</v>
       </c>
       <c r="F33" t="n">
-        <v>176.7380021652062</v>
+        <v>187.780559511574</v>
       </c>
       <c r="G33" t="n">
-        <v>92.36690175486311</v>
+        <v>103.4094591012309</v>
       </c>
       <c r="H33" t="n">
-        <v>60.42425172145935</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="I33" t="n">
-        <v>94.64098789293521</v>
+        <v>105.6835452393033</v>
       </c>
       <c r="J33" t="n">
-        <v>188.5343272394024</v>
+        <v>199.5768845857702</v>
       </c>
       <c r="K33" t="n">
-        <v>349.0129992935726</v>
+        <v>360.0555566399404</v>
       </c>
       <c r="L33" t="n">
-        <v>564.796378168595</v>
+        <v>575.8389355149628</v>
       </c>
       <c r="M33" t="n">
-        <v>816.6054034712923</v>
+        <v>827.6479608176602</v>
       </c>
       <c r="N33" t="n">
-        <v>1075.079064392612</v>
+        <v>1086.12162173898</v>
       </c>
       <c r="O33" t="n">
-        <v>1311.531967207143</v>
+        <v>1322.574524553511</v>
       </c>
       <c r="P33" t="n">
-        <v>1501.306267771949</v>
+        <v>1512.348825118317</v>
       </c>
       <c r="Q33" t="n">
-        <v>1628.165361980183</v>
+        <v>1639.207919326551</v>
       </c>
       <c r="R33" t="n">
-        <v>1689.868816406096</v>
+        <v>1700.911373752464</v>
       </c>
       <c r="S33" t="n">
-        <v>1645.247785805831</v>
+        <v>1656.290343152198</v>
       </c>
       <c r="T33" t="n">
-        <v>1519.156230681483</v>
+        <v>1530.198788027851</v>
       </c>
       <c r="U33" t="n">
-        <v>1342.886393505364</v>
+        <v>1353.928950851732</v>
       </c>
       <c r="V33" t="n">
-        <v>1143.768875567364</v>
+        <v>1154.811432913732</v>
       </c>
       <c r="W33" t="n">
-        <v>958.4461213005577</v>
+        <v>969.4886786469256</v>
       </c>
       <c r="X33" t="n">
-        <v>803.5786855394377</v>
+        <v>814.6212428858056</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.0929063186585</v>
+        <v>688.1354636650264</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1105.509541396136</v>
+        <v>1116.552098742504</v>
       </c>
       <c r="C34" t="n">
-        <v>932.9478298793607</v>
+        <v>943.9903872257286</v>
       </c>
       <c r="D34" t="n">
-        <v>767.0698370808834</v>
+        <v>778.1123944272513</v>
       </c>
       <c r="E34" t="n">
-        <v>597.3118333316207</v>
+        <v>608.3543906779886</v>
       </c>
       <c r="F34" t="n">
-        <v>420.604779293377</v>
+        <v>431.6473366397448</v>
       </c>
       <c r="G34" t="n">
-        <v>255.8635989058954</v>
+        <v>266.9061562522632</v>
       </c>
       <c r="H34" t="n">
-        <v>123.5195382852113</v>
+        <v>134.5620956315791</v>
       </c>
       <c r="I34" t="n">
-        <v>60.42425172145935</v>
+        <v>71.46680906782714</v>
       </c>
       <c r="J34" t="n">
-        <v>119.3299154236425</v>
+        <v>216.9521579347001</v>
       </c>
       <c r="K34" t="n">
-        <v>220.3057900582693</v>
+        <v>588.5107130733938</v>
       </c>
       <c r="L34" t="n">
-        <v>762.3864734445284</v>
+        <v>1130.591396459653</v>
       </c>
       <c r="M34" t="n">
-        <v>1352.474732963971</v>
+        <v>1261.195788798182</v>
       </c>
       <c r="N34" t="n">
-        <v>1922.232447925505</v>
+        <v>1765.08223040754</v>
       </c>
       <c r="O34" t="n">
-        <v>2459.667578499048</v>
+        <v>2302.517360981084</v>
       </c>
       <c r="P34" t="n">
-        <v>2907.943528647073</v>
+        <v>2750.793311129109</v>
       </c>
       <c r="Q34" t="n">
-        <v>2977.710799877729</v>
+        <v>2988.753357224096</v>
       </c>
       <c r="R34" t="n">
-        <v>2994.181892554497</v>
+        <v>3005.224449900864</v>
       </c>
       <c r="S34" t="n">
-        <v>2849.755354058731</v>
+        <v>2860.797911405099</v>
       </c>
       <c r="T34" t="n">
-        <v>2607.508129962137</v>
+        <v>2618.550687308505</v>
       </c>
       <c r="U34" t="n">
-        <v>2329.12149801088</v>
+        <v>2340.164055357248</v>
       </c>
       <c r="V34" t="n">
-        <v>2042.165989881311</v>
+        <v>2053.208547227679</v>
       </c>
       <c r="W34" t="n">
-        <v>1770.139585467602</v>
+        <v>1781.18214281397</v>
       </c>
       <c r="X34" t="n">
-        <v>1524.747830801015</v>
+        <v>1535.790388147383</v>
       </c>
       <c r="Y34" t="n">
-        <v>1297.328160115123</v>
+        <v>1308.370717461491</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2108.089956131646</v>
+        <v>1536.329659438081</v>
       </c>
       <c r="C35" t="n">
-        <v>1669.94748331507</v>
+        <v>1536.329659438081</v>
       </c>
       <c r="D35" t="n">
-        <v>1234.037698489514</v>
+        <v>1100.419874612525</v>
       </c>
       <c r="E35" t="n">
-        <v>800.2629536478094</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F35" t="n">
         <v>446.7092428694776</v>
@@ -6937,13 +6937,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6958,31 +6958,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W35" t="n">
-        <v>2108.089956131646</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X35" t="n">
-        <v>2108.089956131646</v>
+        <v>1536.329659438081</v>
       </c>
       <c r="Y35" t="n">
-        <v>2108.089956131646</v>
+        <v>1536.329659438081</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.081764785142</v>
+        <v>694.697370523135</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268367</v>
+        <v>522.1356590063599</v>
       </c>
       <c r="D37" t="n">
-        <v>443.520053268367</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E37" t="n">
-        <v>388.6547859746801</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F37" t="n">
-        <v>211.9477319364363</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
         <v>47.20655154895474</v>
@@ -7098,22 +7098,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>202.9123158186961</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L37" t="n">
-        <v>326.7831174369941</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M37" t="n">
-        <v>897.9345369632209</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N37" t="n">
-        <v>1467.692251924755</v>
+        <v>1720.113561076154</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498298</v>
+        <v>1837.879442423916</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7125,22 +7125,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>2196.695959089137</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1918.309327137879</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270317</v>
+        <v>1631.35381900831</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856609</v>
+        <v>1359.327414594601</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>1113.935659928014</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041292</v>
+        <v>886.515989242122</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>1087.577165952531</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>649.4346931359546</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>213.5249083103991</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>213.5249083103991</v>
       </c>
       <c r="F38" t="n">
         <v>47.20655154895474</v>
@@ -7171,16 +7171,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W38" t="n">
-        <v>2360.327577447737</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X38" t="n">
-        <v>2209.200554108492</v>
+        <v>1495.863289652878</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.200554108492</v>
+        <v>1087.577165952531</v>
       </c>
     </row>
     <row r="39">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.1113136517137</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C40" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364613</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>107.8840567206269</v>
       </c>
       <c r="F40" t="n">
         <v>47.20655154895474</v>
@@ -7338,16 +7338,16 @@
         <v>477.6707703898317</v>
       </c>
       <c r="L40" t="n">
-        <v>601.5415720081297</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1720.113561076154</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1837.879442423916</v>
       </c>
       <c r="P40" t="n">
         <v>2274.089213540314</v>
@@ -7362,22 +7362,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.723270266458</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1668.767762136888</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W40" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X40" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1893.561637177626</v>
+        <v>1722.256755431942</v>
       </c>
       <c r="C41" t="n">
-        <v>1455.41916436105</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>1178.570277437541</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>744.7955325958366</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
         <v>276.0532770435808</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X41" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y41" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
     </row>
     <row r="42">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.081764785142</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C43" t="n">
-        <v>443.520053268367</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D43" t="n">
         <v>393.6716093364613</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>744.992999204955</v>
+        <v>862.0820538119945</v>
       </c>
       <c r="M43" t="n">
-        <v>875.5973915434845</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N43" t="n">
-        <v>1445.355106505019</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O43" t="n">
-        <v>1982.790237078562</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7599,22 +7599,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270317</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856609</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.320054190021</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041292</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>716.4307943255671</v>
+        <v>1087.577165952531</v>
       </c>
       <c r="C44" t="n">
-        <v>716.4307943255671</v>
+        <v>649.4346931359546</v>
       </c>
       <c r="D44" t="n">
-        <v>716.4307943255671</v>
+        <v>649.4346931359546</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>215.6599482942498</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>1592.855172792597</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X44" t="n">
-        <v>1173.712709371907</v>
+        <v>1495.863289652878</v>
       </c>
       <c r="Y44" t="n">
-        <v>765.4265856715607</v>
+        <v>1087.577165952531</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.081764785142</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268367</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D46" t="n">
-        <v>277.6420604698897</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E46" t="n">
-        <v>107.8840567206269</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F46" t="n">
-        <v>107.8840567206269</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>107.8840567206269</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895474</v>
@@ -7809,22 +7809,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092378</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
   </sheetData>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>25.08922849669006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>22.99211437686851</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.530227110285693</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8625,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477706</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>34.17160518172662</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.36928463638102</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464598</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>156.730423204287</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>10.62967161639895</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>177.1920849464595</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>590.2463295139128</v>
       </c>
       <c r="Q23" t="n">
-        <v>378.1489221677934</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>97.88909899837188</v>
       </c>
       <c r="L25" t="n">
-        <v>61.66415767596334</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>467.1758382841658</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>350.6242833310193</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>38.22735379816049</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>97.88909899837188</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10044,16 +10044,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>85.95599746352241</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>557.9599168594855</v>
+        <v>38.22735379816038</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>259.8402047556997</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>61.66415767596334</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>38.22735379816038</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>425.8608352366384</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>57.48587557110841</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>4.217953603099659</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>444.9969971592903</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>338.8290049886002</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>337.354896445347</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>338.8290049886002</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>175.7179764032072</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>192.4544649334025</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -23260,10 +23260,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.640769520531</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.5672377222481</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>111.3145178010417</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>177.3335870760209</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>240.435063864535</v>
+        <v>53.4861337707539</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>38.60970602238588</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>286.6503792280441</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>248.0358572185184</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>111.3145178010417</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>276.3631494550537</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,7 +23983,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>11.75530821121282</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>190.6650602925683</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>24.96372669168079</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>111.3145178010417</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>266.0039322266711</v>
       </c>
       <c r="D23" t="n">
-        <v>68.97058990848274</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.80422391625035</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>296.8242272027142</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>43.47110111249208</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>247.080519583707</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>252.4711365120617</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>408.6537868887</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25156,16 +25156,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>205.8522272625549</v>
       </c>
       <c r="F35" t="n">
-        <v>73.57058162433589</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25216,10 +25216,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>113.7438090910202</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -25365,7 +25365,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>77.82944968061298</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,10 +25399,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>258.9335821010544</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25453,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>265.3352856806297</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -25602,7 +25602,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>114.8692533779057</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>60.03778590972593</v>
       </c>
       <c r="D41" t="n">
-        <v>157.4702889230266</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>114.8692533779057</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>373.5307413475251</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>256.8198925170423</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -25924,7 +25924,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>70.94988989452182</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>102.1862712954188</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>471180.7055711693</v>
+        <v>457961.5537785679</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>291314.3990975443</v>
+        <v>291314.3990975444</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>291314.3990975443</v>
+        <v>291314.3990975444</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>396107.8948110464</v>
+        <v>435967.9003534111</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>396107.8948110464</v>
+        <v>435967.9003534112</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>396107.8948110464</v>
+        <v>435967.9003534111</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>379080.724125995</v>
+        <v>435967.9003534111</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>291314.3990975444</v>
+        <v>291314.3990975443</v>
       </c>
     </row>
     <row r="14">
@@ -26319,37 +26319,37 @@
         <v>457961.5537785679</v>
       </c>
       <c r="D2" t="n">
-        <v>469128.9049041075</v>
+        <v>457961.5537785678</v>
       </c>
       <c r="E2" t="n">
         <v>275270.7497764304</v>
       </c>
       <c r="F2" t="n">
+        <v>275270.7497764304</v>
+      </c>
+      <c r="G2" t="n">
+        <v>275270.7497764304</v>
+      </c>
+      <c r="H2" t="n">
+        <v>275270.7497764304</v>
+      </c>
+      <c r="I2" t="n">
+        <v>370142.4386754644</v>
+      </c>
+      <c r="J2" t="n">
+        <v>370142.4386754644</v>
+      </c>
+      <c r="K2" t="n">
+        <v>370142.4386754644</v>
+      </c>
+      <c r="L2" t="n">
+        <v>370142.4386754644</v>
+      </c>
+      <c r="M2" t="n">
         <v>275270.7497764303</v>
       </c>
-      <c r="G2" t="n">
-        <v>275270.7497764303</v>
-      </c>
-      <c r="H2" t="n">
-        <v>275270.7497764303</v>
-      </c>
-      <c r="I2" t="n">
-        <v>344000.0638798484</v>
-      </c>
-      <c r="J2" t="n">
-        <v>344000.0638798482</v>
-      </c>
-      <c r="K2" t="n">
-        <v>344000.0638798482</v>
-      </c>
-      <c r="L2" t="n">
-        <v>332832.7127543087</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>275270.7497764304</v>
-      </c>
-      <c r="N2" t="n">
-        <v>275270.7497764303</v>
       </c>
       <c r="O2" t="n">
         <v>275270.7497764303</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>40883.89454475579</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>512485.5095559817</v>
+        <v>551135.2009906757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54922.32752005904</v>
+        <v>80641.39924595084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>95581.10746075501</v>
+        <v>71478.853218408</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>294349.6920770006</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>16511.41869660761</v>
       </c>
       <c r="F4" t="n">
+        <v>16511.41869660762</v>
+      </c>
+      <c r="G4" t="n">
         <v>16511.41869660761</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16511.4186966076</v>
       </c>
       <c r="H4" t="n">
         <v>16511.41869660761</v>
       </c>
       <c r="I4" t="n">
-        <v>52695.81424539206</v>
+        <v>66459.17042796315</v>
       </c>
       <c r="J4" t="n">
-        <v>52695.81424539204</v>
+        <v>66459.17042796314</v>
       </c>
       <c r="K4" t="n">
-        <v>52695.81424539205</v>
+        <v>66459.17042796315</v>
       </c>
       <c r="L4" t="n">
-        <v>46816.46195401518</v>
+        <v>66459.17042796315</v>
       </c>
       <c r="M4" t="n">
         <v>16511.41869660761</v>
       </c>
       <c r="N4" t="n">
-        <v>16511.4186966076</v>
+        <v>16511.41869660761</v>
       </c>
       <c r="O4" t="n">
         <v>16511.41869660761</v>
       </c>
       <c r="P4" t="n">
-        <v>16511.4186966076</v>
+        <v>16511.41869660761</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36853.56981021012</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>58608.48552603099</v>
+        <v>64488.87692398085</v>
       </c>
       <c r="J5" t="n">
-        <v>58608.48552603099</v>
+        <v>64488.87692398085</v>
       </c>
       <c r="K5" t="n">
-        <v>58608.48552603099</v>
+        <v>64488.87692398085</v>
       </c>
       <c r="L5" t="n">
-        <v>56096.53334074133</v>
+        <v>64488.87692398085</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492335</v>
       </c>
       <c r="C6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="D6" t="n">
-        <v>97041.74847214101</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="E6" t="n">
-        <v>-299777.2596857967</v>
+        <v>-338980.8315637127</v>
       </c>
       <c r="F6" t="n">
-        <v>212708.2498701848</v>
+        <v>212154.369426963</v>
       </c>
       <c r="G6" t="n">
-        <v>212708.2498701849</v>
+        <v>212154.369426963</v>
       </c>
       <c r="H6" t="n">
-        <v>212708.2498701849</v>
+        <v>212154.369426963</v>
       </c>
       <c r="I6" t="n">
-        <v>177773.4365883663</v>
+        <v>158270.1736026306</v>
       </c>
       <c r="J6" t="n">
-        <v>232695.7641084252</v>
+        <v>238911.5728485814</v>
       </c>
       <c r="K6" t="n">
-        <v>232695.7641084252</v>
+        <v>238911.5728485814</v>
       </c>
       <c r="L6" t="n">
-        <v>229919.7174595522</v>
+        <v>238911.5728485814</v>
       </c>
       <c r="M6" t="n">
-        <v>117127.1424094299</v>
+        <v>140675.5162085549</v>
       </c>
       <c r="N6" t="n">
-        <v>212708.2498701848</v>
+        <v>212154.369426963</v>
       </c>
       <c r="O6" t="n">
-        <v>212708.2498701849</v>
+        <v>212154.3694269629</v>
       </c>
       <c r="P6" t="n">
-        <v>212708.249870185</v>
+        <v>212154.369426963</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>32.7531020605716</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26795,31 +26795,31 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>796.6181495657693</v>
+        <v>893.3351133478393</v>
       </c>
       <c r="J4" t="n">
-        <v>796.6181495657693</v>
+        <v>893.3351133478393</v>
       </c>
       <c r="K4" t="n">
-        <v>796.6181495657693</v>
+        <v>893.3351133478393</v>
       </c>
       <c r="L4" t="n">
-        <v>755.3031465182419</v>
+        <v>893.3351133478393</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619342</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>32.7531020605716</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9488260326495</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144067</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>206.5362552038351</v>
+        <v>303.253218985905</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.5456391580994</v>
+        <v>286.8286753760293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.2521823009162</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>284.8903798193452</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>79.8149075877289</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.2901660948067</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6195459951891</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27946,10 +27946,10 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.46078876789484</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>61.51230405132225</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
-        <v>87.27789097014247</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
-        <v>138.1782919728362</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28022,16 +28022,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5612962059744</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>137.9780290613614</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>85.99716511640959</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>115.304645464995</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.1682919906331</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6454491228296</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>207.3031764290495</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.131670762052549</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.348473191870668</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.076237054030902</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.17539134075754</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>20.77863378260765</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>23.12023369725967</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>23.49434324994148</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978144</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>18.93442017160913</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.21896100560222</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8.271063506783442</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.000447490272464</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5763887608850338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01053366096420392</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07045006858311627</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6803993465790441</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460122</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>11.37614111852891</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>15.29662563687356</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>17.85044062301152</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>18.32288867065882</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>16.76186346679082</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408648</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.992889456329019</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.374084082730677</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.308579124778497</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2839632150345782</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004634872933099756</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0590629709288996</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5251235051678532</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.776184616661818</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.175752044673201</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739425</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829311</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154687</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>9.038245360419706</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750284</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>7.143397865800726</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.945718411146311</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.655685947403067</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.029306502460914</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2523599666962073</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0032216165961218</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,10 +32308,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -32320,13 +32320,13 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,10 +32414,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,10 +32545,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -32557,7 +32557,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -32566,25 +32566,25 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,10 +32651,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -32736,10 +32736,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,10 +32782,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -32794,13 +32794,13 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811311</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
@@ -32809,19 +32809,19 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998885</v>
@@ -32888,10 +32888,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
         <v>14.66668190417549</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,10 +33019,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33031,7 +33031,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,10 +33125,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,10 +33256,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33268,7 +33268,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33277,7 +33277,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917233</v>
@@ -33286,16 +33286,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,10 +33362,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,19 +33493,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916754</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562322</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -33523,16 +33523,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,10 +33599,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,10 +33730,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -33742,7 +33742,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -33760,16 +33760,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,10 +33836,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,10 +33967,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -33979,7 +33979,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,10 +34073,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.663615574899505</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.17539134075754</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844198</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>20.77863378260766</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>23.12023369725966</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>23.49434324994148</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978145</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>18.93442017160913</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.21896100560221</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8.271063506783435</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460121</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>36.46536961521898</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>15.29662563687355</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>17.85044062301152</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>16.76186346679083</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408649</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.99288945632901</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.37408408273069</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5.705979154958895</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739425</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829311</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154689</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>9.038245360419708</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108054</v>
@@ -35503,10 +35503,10 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>258.5173486362903</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,7 +35655,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
@@ -35813,13 +35813,13 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35883,16 +35883,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35901,7 +35901,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35962,7 +35962,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>70.13034202264453</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247774</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
@@ -36120,16 +36120,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572666</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
-        <v>309.1157135712367</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36363,7 +36363,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,16 +36372,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>860.0446034323663</v>
       </c>
       <c r="Q23" t="n">
-        <v>580.7561898557406</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36442,13 +36442,13 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811311</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36457,10 +36457,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572665</v>
+        <v>195.6669783595418</v>
       </c>
       <c r="L25" t="n">
-        <v>186.7861795126279</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
         <v>596.0487469893359</v>
@@ -36530,13 +36530,13 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561039</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485101</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,31 +36594,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125711</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M26" t="n">
-        <v>796.6181495657692</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>685.3973156304914</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>308.0256277166141</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>754.6262434036994</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36679,7 +36679,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36697,7 +36697,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572665</v>
+        <v>195.6669783595418</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N28" t="n">
-        <v>214.7427770634108</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561039</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485101</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36831,31 +36831,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125711</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>796.6181495657693</v>
+        <v>276.8855865044442</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>575.9568861105408</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>754.6262434036994</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36931,10 +36931,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,16 +36992,16 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>186.7861795126279</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
@@ -37010,7 +37010,7 @@
         <v>452.8039900485101</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,16 +37068,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125711</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>276.8855865044442</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>755.3031465182418</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,10 +37086,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>327.284149489562</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>754.6262434036994</v>
       </c>
       <c r="R32" t="n">
         <v>288.7178273103004</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916754</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562322</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>101.9958329642696</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
@@ -37247,7 +37247,7 @@
         <v>452.8039900485101</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,10 +37305,10 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>576.9206257840676</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>440.6159304206037</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37551,7 +37551,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366647</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>469.2785250701243</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>440.6159304206037</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125712</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>300.8399982398718</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>294.241390365406</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38177,25 +38177,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409513</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
